--- a/biology/Médecine/Capillaire_(anatomie)/Capillaire_(anatomie).xlsx
+++ b/biology/Médecine/Capillaire_(anatomie)/Capillaire_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les capillaires sont les plus fins et plus petits vaisseaux sanguins qui existent chez les vertébrés.
 Ils relient les veinules aux artérioles, fermant la boucle du réseau de la circulation sanguine ; 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils sont connectés aux artères et aux veines, et interagissent de près avec les tissus.
 Ce sont les plus petits vaisseaux sanguins de l'organisme. Ils sont plus petits que les veinules et artérioles, elles-mêmes respectivement plus petites que les veines et artères.
@@ -550,7 +564,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ils fournissent aux cellules les nutriments (glucose et autres) et le dioxygène. Ils captent les produits de l'anabolisme et le CO2 et permettent le captage du dioxygène par l'hémoglobine ainsi que le départ du CO2 dans les alvéoles pulmonaires. 
 Les cellules endothéliales du capillaire jouent aussi un rôle dans la réponse immunitaire
@@ -585,7 +601,9 @@
           <t>Répartition dans l'organisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tissus les plus richement vascularisés par des capillaires sont ceux des muscles, du foie, des reins, des poumons et du système nerveux. Au contraire, ceux qui sont les moins vascularisés sont les tendons, les ligaments, les os et les cartilages.
 Les capillaires sont absents de certains tissus (épiderme, cornée de l'œil).
@@ -617,7 +635,9 @@
           <t>Perméabilité et échanges capillaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur paroi  est si fine  que les molécules d'oxygène, d'eau et même certains  lipides peuvent la traverser par diffusion entre les tissus. Les déchets métaboliques tels que le dioxyde de carbone et l'urée peuvent diffuser dans le sang pour être emportés vers les reins et le foie qui détoxifieront le sang. 
 La perméabilité capillaire peut être augmentée par la libération de certaines cytokines  et  certains capillaires situés juste en aval de l'artériole sont entourés de sphincters qui par compression du capillaire régulent les débits de sang dans le « lit capillaire », selon les besoins signalés par les cellules de l'organe desservi (via des messagers chimiques).
